--- a/data/trans_dic/IP36A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP36A-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,97</t>
+          <t>0,0; 7,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 15,02</t>
+          <t>4,07; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 12,46</t>
+          <t>2,08; 11,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,69</t>
+          <t>0,0; 9,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 17,89</t>
+          <t>6,17; 17,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,53</t>
+          <t>2,64; 12,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,49</t>
+          <t>0,7; 6,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 13,73</t>
+          <t>6,24; 14,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,86</t>
+          <t>2,91; 9,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,25</t>
+          <t>3,19; 11,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,09</t>
+          <t>6,88; 15,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 16,31</t>
+          <t>6,29; 15,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,69</t>
+          <t>0,0; 39,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 13,52</t>
+          <t>4,42; 14,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,11</t>
+          <t>4,89; 12,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,26</t>
+          <t>1,98; 9,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,09</t>
+          <t>0,0; 72,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,66</t>
+          <t>4,9; 10,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 12,82</t>
+          <t>6,92; 13,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,2</t>
+          <t>5,33; 11,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,64</t>
+          <t>0,0; 44,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,43</t>
+          <t>2,25; 13,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 15,29</t>
+          <t>4,43; 14,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 19,62</t>
+          <t>8,41; 20,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,22</t>
+          <t>0,0; 67,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,78</t>
+          <t>3,89; 14,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,75</t>
+          <t>2,97; 11,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 18,61</t>
+          <t>7,97; 18,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,55</t>
+          <t>0,0; 33,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,1</t>
+          <t>3,82; 11,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,55</t>
+          <t>4,79; 11,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,95</t>
+          <t>9,62; 17,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,03</t>
+          <t>0,0; 28,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 16,29</t>
+          <t>6,65; 16,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 18,13</t>
+          <t>7,54; 17,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 27,05</t>
+          <t>11,76; 26,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 62,13</t>
+          <t>13,23; 61,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 16,06</t>
+          <t>4,7; 15,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 21,87</t>
+          <t>9,42; 22,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 15,97</t>
+          <t>5,14; 15,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 39,59</t>
+          <t>4,84; 41,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,7</t>
+          <t>6,55; 13,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 17,69</t>
+          <t>9,56; 17,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,94; 18,8</t>
+          <t>9,94; 18,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 45,08</t>
+          <t>13,76; 44,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,56</t>
+          <t>4,84; 9,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,93</t>
+          <t>7,76; 12,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,32</t>
+          <t>9,64; 15,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 46,92</t>
+          <t>12,18; 46,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,0</t>
+          <t>5,14; 10,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,69</t>
+          <t>7,74; 12,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,96</t>
+          <t>6,32; 10,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 30,64</t>
+          <t>5,04; 30,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 9,15</t>
+          <t>5,76; 8,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,99</t>
+          <t>8,46; 12,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,53</t>
+          <t>8,65; 12,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 32,31</t>
+          <t>11,6; 33,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP36A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP36A-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,52%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>8,39%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>5,37%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,46</t>
+          <t>0,0; 7,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,62</t>
+          <t>6,49; 18,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,61</t>
+          <t>2,55; 11,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,41; 26,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,35</t>
+          <t>0,0; 8,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 17,73</t>
+          <t>4,22; 14,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 12,25</t>
+          <t>2,02; 11,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>6,51; 35,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,17</t>
+          <t>0,73; 6,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 14,39</t>
+          <t>6,47; 14,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,41</t>
+          <t>3,22; 9,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>7,55; 25,28</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,75%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>10,47%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>10,51%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>21,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 11,53</t>
+          <t>4,39; 13,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,49</t>
+          <t>4,95; 12,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 15,85</t>
+          <t>2,2; 8,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,58</t>
+          <t>8,17; 24,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,1</t>
+          <t>3,2; 11,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,78</t>
+          <t>7,09; 15,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,1</t>
+          <t>6,68; 15,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,04</t>
+          <t>18,61; 38,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,93</t>
+          <t>4,79; 10,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,21</t>
+          <t>6,59; 12,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,03</t>
+          <t>5,5; 11,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,32</t>
+          <t>16,05; 28,79</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,91%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>9,15%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>13,31%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,01%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,53%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 13,82</t>
+          <t>3,92; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 14,66</t>
+          <t>3,07; 11,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 20,27</t>
+          <t>8,08; 18,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,58</t>
+          <t>15,72; 39,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,08</t>
+          <t>2,23; 13,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 11,45</t>
+          <t>4,75; 14,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 18,45</t>
+          <t>8,27; 19,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,58</t>
+          <t>8,54; 25,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 11,91</t>
+          <t>3,83; 11,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 11,53</t>
+          <t>4,88; 11,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,38</t>
+          <t>9,49; 17,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,87</t>
+          <t>14,6; 29,85</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>10,6%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>11,69%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>18,67%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>34,46%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,01%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>13,71%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 16,8</t>
+          <t>4,75; 14,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 17,46</t>
+          <t>9,4; 21,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 26,19</t>
+          <t>5,28; 15,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 61,09</t>
+          <t>5,45; 19,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 15,03</t>
+          <t>6,52; 17,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 22,06</t>
+          <t>7,61; 17,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 15,38</t>
+          <t>12,31; 26,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 41,85</t>
+          <t>10,01; 23,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 13,94</t>
+          <t>6,75; 13,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,56; 17,27</t>
+          <t>9,35; 17,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,94; 18,41</t>
+          <t>10,13; 18,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 44,47</t>
+          <t>8,68; 18,41</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>7,01%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>10,11%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>12,27%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>26,23%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,46%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,59</t>
+          <t>5,2; 10,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,78</t>
+          <t>7,89; 12,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,64; 15,14</t>
+          <t>6,21; 11,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 46,58</t>
+          <t>10,3; 21,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,17</t>
+          <t>5,17; 9,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,69</t>
+          <t>7,96; 12,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,99</t>
+          <t>9,59; 15,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,04; 30,01</t>
+          <t>14,33; 23,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,95</t>
+          <t>5,78; 9,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,02</t>
+          <t>8,41; 12,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,49</t>
+          <t>8,78; 12,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,6; 33,05</t>
+          <t>13,56; 20,82</t>
         </is>
       </c>
     </row>
